--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1335916.903624154</v>
+        <v>1335307.1435671</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>356.1601022297878</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>181.8927338522706</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>36.53782697004632</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>110.4848169027172</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>237.2177930475864</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -907,16 +907,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>321.5295713582674</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>55.58468188911726</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>263.2961755574959</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1147,7 +1147,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>346.4140438238907</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>327.6755980356106</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1293,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>8.129390960577833</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1128872655202599</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932892</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>397.2450776617479</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>161.9356819339713</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1542,13 +1542,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8731123569568</v>
+        <v>87.47603612045691</v>
       </c>
       <c r="H13" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>156.56410959728</v>
@@ -1612,7 +1612,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773013</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1666,7 +1666,7 @@
         <v>256.6189776240556</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1785,7 +1785,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T16" t="n">
-        <v>243.1546752508501</v>
+        <v>198.3495458826922</v>
       </c>
       <c r="U16" t="n">
         <v>275.645275292109</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>91.05104793925589</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.65301062268223</v>
+        <v>79.65301062268134</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368476</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240573</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8731123569568</v>
+        <v>86.1815832410892</v>
       </c>
       <c r="H19" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>68.44472927850819</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2137,7 +2137,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2259,7 +2259,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>98.17623463259739</v>
+        <v>184.0775610783649</v>
       </c>
       <c r="U22" t="n">
         <v>275.645275292109</v>
@@ -2320,7 +2320,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
@@ -2335,7 +2335,7 @@
         <v>397.2450776617479</v>
       </c>
       <c r="H23" t="n">
-        <v>284.8176194334636</v>
+        <v>284.8176194334632</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2493,10 +2493,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H25" t="n">
-        <v>7.902914293260187</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.56410959728</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>191.6146112537038</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.5033562952966</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>115.8628693253758</v>
       </c>
       <c r="G28" t="n">
         <v>163.8731123569568</v>
@@ -2733,7 +2733,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.1546752508501</v>
@@ -2781,7 +2781,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800581</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>86.52768375462503</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
-        <v>79.77157195569461</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
         <v>275.645275292109</v>
@@ -3037,7 +3037,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3192,22 +3192,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>30.73708636672999</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8731123569568</v>
+        <v>86.18158324108921</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.65301062268192</v>
+        <v>79.65301062268223</v>
       </c>
       <c r="T38" t="n">
         <v>217.2590655368476</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>78.87258048141261</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>78.87258048141294</v>
       </c>
       <c r="T40" t="n">
         <v>243.1546752508501</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3793,7 +3793,7 @@
         <v>79.65301062268192</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2590655368476</v>
+        <v>217.259065536848</v>
       </c>
       <c r="U41" t="n">
         <v>256.6189776240556</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>86.18158324108921</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>275.645275292109</v>
       </c>
       <c r="V43" t="n">
-        <v>232.3178416354649</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3988,7 +3988,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948847</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.2450776617479</v>
@@ -4033,7 +4033,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.8731123569568</v>
+        <v>104.7959981844713</v>
       </c>
       <c r="H46" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.40466267690321</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>243.1546752508501</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>73.2586847983671</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>550.6055673650617</v>
+        <v>1395.53913136414</v>
       </c>
       <c r="C2" t="n">
-        <v>516.503498588889</v>
+        <v>966.9574571014084</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>935.088076316257</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4336,19 +4336,19 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>914.6089660449919</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4412,22 +4412,22 @@
         <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="N3" t="n">
-        <v>1224.671464618085</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>600.6587786275059</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="C4" t="n">
-        <v>428.0970671107308</v>
+        <v>675.0731144331462</v>
       </c>
       <c r="D4" t="n">
-        <v>428.0970671107308</v>
+        <v>509.1951216346689</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1638.85871285645</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1360.425712109555</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1073.470203979985</v>
+        <v>1339.703158504613</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.470203979985</v>
+        <v>1339.703158504613</v>
       </c>
       <c r="X4" t="n">
-        <v>828.0784493133976</v>
+        <v>1094.311403838025</v>
       </c>
       <c r="Y4" t="n">
-        <v>600.6587786275059</v>
+        <v>866.8917331521334</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>763.0287521501522</v>
+        <v>1250.721030006719</v>
       </c>
       <c r="C5" t="n">
-        <v>523.4148197788528</v>
+        <v>822.1393557439874</v>
       </c>
       <c r="D5" t="n">
-        <v>491.5454389937014</v>
+        <v>790.269974958836</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>760.5356341575352</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>435.7582893512044</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>437.0247332457074</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X5" t="n">
-        <v>1193.574042295003</v>
+        <v>1277.225916111165</v>
       </c>
       <c r="Y5" t="n">
-        <v>785.2879185946559</v>
+        <v>1272.980196451223</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.2432104330715</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="C7" t="n">
-        <v>484.2432104330715</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="D7" t="n">
-        <v>428.0970671107308</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
@@ -4731,46 +4731,46 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>395.2818083374338</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>815.3347072823371</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1235.38760622724</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
-        <v>1655.056855453022</v>
+        <v>1233.160939331176</v>
       </c>
       <c r="P7" t="n">
-        <v>1655.056855453022</v>
+        <v>1580.667833301518</v>
       </c>
       <c r="Q7" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V7" t="n">
-        <v>983.6892855326716</v>
+        <v>1185.348250772513</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6628811189632</v>
+        <v>913.3218463588046</v>
       </c>
       <c r="X7" t="n">
-        <v>711.6628811189632</v>
+        <v>913.3218463588046</v>
       </c>
       <c r="Y7" t="n">
-        <v>484.2432104330715</v>
+        <v>685.9021756729128</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>503.8064494671689</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C8" t="n">
-        <v>469.7043806909963</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D8" t="n">
-        <v>437.8349999058449</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E8" t="n">
-        <v>408.1006591045441</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F8" t="n">
-        <v>384.2736335541559</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G8" t="n">
         <v>34.36045797446834</v>
@@ -4810,19 +4810,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4831,25 +4831,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V8" t="n">
-        <v>1354.309253581271</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W8" t="n">
-        <v>1353.494203032709</v>
+        <v>1003.581027453021</v>
       </c>
       <c r="X8" t="n">
-        <v>1338.392143652423</v>
+        <v>988.4789680727357</v>
       </c>
       <c r="Y8" t="n">
-        <v>930.1060199520767</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="L9" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="M9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="N9" t="n">
+        <v>384.5656667282782</v>
+      </c>
+      <c r="O9" t="n">
         <v>739.9048540962709</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>1159.957753041174</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1580.010651986078</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1580.010651986078</v>
       </c>
       <c r="Q9" t="n">
         <v>1580.010651986078</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>851.7801684713901</v>
+        <v>1024.341879988165</v>
       </c>
       <c r="C10" t="n">
         <v>851.7801684713901</v>
@@ -4962,52 +4962,52 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1146.964903885608</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1566.63415311139</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q10" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="T10" t="n">
-        <v>1516.410212542856</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="U10" t="n">
-        <v>1516.410212542856</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="V10" t="n">
-        <v>1516.410212542856</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="W10" t="n">
-        <v>1516.410212542856</v>
+        <v>1688.971924059632</v>
       </c>
       <c r="X10" t="n">
-        <v>1271.018457876269</v>
+        <v>1443.580169393044</v>
       </c>
       <c r="Y10" t="n">
-        <v>1043.598787190377</v>
+        <v>1216.160498707152</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C11" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
         <v>791.0944537814162</v>
@@ -5050,25 +5050,25 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M11" t="n">
-        <v>1535.506707078667</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N11" t="n">
-        <v>2685.752111875665</v>
+        <v>2516.59804712261</v>
       </c>
       <c r="O11" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636536</v>
       </c>
       <c r="P11" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.99237687309</v>
       </c>
       <c r="Q11" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R11" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S11" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T11" t="n">
         <v>4807.200536626277</v>
@@ -5077,16 +5077,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W11" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3951.744068857806</v>
+        <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>3845.287607694449</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D12" t="n">
-        <v>3750.197318841002</v>
+        <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>3656.076904167955</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F12" t="n">
-        <v>3572.693065784117</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G12" t="n">
-        <v>3487.38297744996</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H12" t="n">
-        <v>3446.371680889198</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>3448.902578449185</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>3455.84755479819</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>3467.717625558197</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L12" t="n">
-        <v>3483.678400552742</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M12" t="n">
-        <v>3502.303872150254</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N12" t="n">
-        <v>4755.24957611944</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O12" t="n">
-        <v>4772.739206684617</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P12" t="n">
-        <v>4786.776177126239</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>4985.374948373245</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
-        <v>5107.111724666206</v>
+        <v>1762.882278270333</v>
       </c>
       <c r="S12" t="n">
-        <v>5045.049405217908</v>
+        <v>1700.819958822035</v>
       </c>
       <c r="T12" t="n">
-        <v>4915.173069821698</v>
+        <v>1570.943623425825</v>
       </c>
       <c r="U12" t="n">
-        <v>4738.841457124276</v>
+        <v>1394.612010728402</v>
       </c>
       <c r="V12" t="n">
-        <v>4539.723939186275</v>
+        <v>1195.494492790401</v>
       </c>
       <c r="W12" t="n">
-        <v>4354.401184919469</v>
+        <v>1010.171738523595</v>
       </c>
       <c r="X12" t="n">
-        <v>4199.533749158349</v>
+        <v>855.3043027624755</v>
       </c>
       <c r="Y12" t="n">
-        <v>4073.04796993757</v>
+        <v>728.8185235416962</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1082.928203205395</v>
+        <v>1101.518771565903</v>
       </c>
       <c r="C13" t="n">
-        <v>919.3568073124947</v>
+        <v>928.9570600491282</v>
       </c>
       <c r="D13" t="n">
-        <v>753.4788145140174</v>
+        <v>763.079067250651</v>
       </c>
       <c r="E13" t="n">
-        <v>583.7208107647547</v>
+        <v>593.3210635013882</v>
       </c>
       <c r="F13" t="n">
-        <v>407.0137567265109</v>
+        <v>416.6140094631444</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H13" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I13" t="n">
         <v>102.1422344933241</v>
@@ -5205,7 +5205,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L13" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M13" t="n">
         <v>1371.513837086632</v>
@@ -5223,28 +5223,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S13" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T13" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U13" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V13" t="n">
-        <v>1792.164981004678</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W13" t="n">
-        <v>1520.13857659097</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X13" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y13" t="n">
-        <v>1274.746821924382</v>
+        <v>1293.33739028489</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C14" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D14" t="n">
         <v>1652.736628213913</v>
@@ -5281,31 +5281,31 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K14" t="n">
-        <v>1143.679603840573</v>
+        <v>571.4218927017964</v>
       </c>
       <c r="L14" t="n">
-        <v>1165.360404977446</v>
+        <v>1668.162660091529</v>
       </c>
       <c r="M14" t="n">
-        <v>2346.532308895916</v>
+        <v>2849.334564009999</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.777713692913</v>
+        <v>3999.579968806997</v>
       </c>
       <c r="O14" t="n">
-        <v>3519.925986636534</v>
+        <v>4022.728241750617</v>
       </c>
       <c r="P14" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.99237687309</v>
       </c>
       <c r="Q14" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R14" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S14" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T14" t="n">
         <v>4807.200536626277</v>
@@ -5314,16 +5314,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V14" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W14" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X14" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y14" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>1154.843697359371</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L15" t="n">
-        <v>1170.804472353916</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M15" t="n">
-        <v>1189.429943951428</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N15" t="n">
-        <v>1208.548376360307</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.038006925483</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P15" t="n">
-        <v>1240.074977367105</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
         <v>1641.145501977371</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1008.929531691893</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="C16" t="n">
-        <v>836.3678201751178</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D16" t="n">
-        <v>670.4898273766405</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E16" t="n">
-        <v>670.4898273766405</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F16" t="n">
-        <v>493.7827733383967</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G16" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063526</v>
       </c>
       <c r="H16" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5442,7 +5442,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L16" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M16" t="n">
         <v>1371.513837086632</v>
@@ -5460,28 +5460,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R16" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S16" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T16" t="n">
-        <v>2357.550060136378</v>
+        <v>2421.398334929369</v>
       </c>
       <c r="U16" t="n">
-        <v>2079.120489134248</v>
+        <v>2142.968763927239</v>
       </c>
       <c r="V16" t="n">
-        <v>1792.164981004678</v>
+        <v>1856.013255797669</v>
       </c>
       <c r="W16" t="n">
-        <v>1520.13857659097</v>
+        <v>1583.986851383961</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.167821096772</v>
+        <v>1338.595096717374</v>
       </c>
       <c r="Y16" t="n">
-        <v>1200.74815041088</v>
+        <v>1111.175426031482</v>
       </c>
     </row>
     <row r="17">
@@ -5515,37 +5515,37 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J17" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K17" t="n">
-        <v>1405.772184659974</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L17" t="n">
-        <v>1427.452985796848</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M17" t="n">
-        <v>2608.624889715317</v>
+        <v>2091.382333304708</v>
       </c>
       <c r="N17" t="n">
-        <v>3758.870294512315</v>
+        <v>2516.59804712261</v>
       </c>
       <c r="O17" t="n">
-        <v>3782.018567455935</v>
+        <v>3519.925986636536</v>
       </c>
       <c r="P17" t="n">
-        <v>4630.084957692488</v>
+        <v>4367.99237687309</v>
       </c>
       <c r="Q17" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R17" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.65413817865</v>
       </c>
       <c r="T17" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U17" t="n">
         <v>4547.98944811713</v>
@@ -5591,31 +5591,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I18" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J18" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>649.9020472411049</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L18" t="n">
-        <v>665.8628222356498</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M18" t="n">
-        <v>684.4882938331623</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N18" t="n">
-        <v>703.6067262420405</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O18" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P18" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R18" t="n">
         <v>1762.882278270333</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1161.054609009581</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C19" t="n">
-        <v>988.492897492806</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D19" t="n">
-        <v>822.6149046943287</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E19" t="n">
-        <v>652.8569009450659</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F19" t="n">
-        <v>476.1498469068222</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G19" t="n">
-        <v>310.6214505866639</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H19" t="n">
-        <v>171.2783246736354</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I19" t="n">
         <v>102.1422344933241</v>
@@ -5679,7 +5679,7 @@
         <v>474.9974089600885</v>
       </c>
       <c r="L19" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M19" t="n">
         <v>1371.513837086632</v>
@@ -5709,16 +5709,16 @@
         <v>2097.711057494756</v>
       </c>
       <c r="V19" t="n">
-        <v>2097.711057494756</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W19" t="n">
-        <v>1825.684653081048</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X19" t="n">
-        <v>1580.29289841446</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y19" t="n">
-        <v>1352.873227728568</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C20" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.64641303947</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213915</v>
       </c>
       <c r="E20" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.96188337221</v>
       </c>
       <c r="F20" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814175</v>
       </c>
       <c r="G20" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H20" t="n">
         <v>102.1422344933241</v>
@@ -5755,49 +5755,49 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K20" t="n">
-        <v>1320.547772480818</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L20" t="n">
-        <v>1342.228573617691</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M20" t="n">
-        <v>1366.352642325611</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N20" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.59804712261</v>
       </c>
       <c r="O20" t="n">
-        <v>3519.925986636535</v>
+        <v>3519.925986636536</v>
       </c>
       <c r="P20" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.99237687309</v>
       </c>
       <c r="Q20" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R20" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S20" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.65413817865</v>
       </c>
       <c r="T20" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U20" t="n">
         <v>4547.98944811713</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W20" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J21" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K21" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L21" t="n">
-        <v>139.4489541568686</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M21" t="n">
-        <v>158.0744257543811</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N21" t="n">
-        <v>177.1928581632593</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.159027993443</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P21" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q21" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3505.902283279031</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C22" t="n">
-        <v>3333.340571762256</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D22" t="n">
-        <v>3167.462578963778</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E22" t="n">
-        <v>2997.704575214516</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F22" t="n">
-        <v>2820.997521176272</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G22" t="n">
-        <v>2655.469124856114</v>
+        <v>241.4853604063526</v>
       </c>
       <c r="H22" t="n">
-        <v>2516.125998943086</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I22" t="n">
-        <v>2429.3569823312</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J22" t="n">
-        <v>2520.293722469986</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K22" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L22" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M22" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N22" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O22" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P22" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q22" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T22" t="n">
-        <v>5007.943810895906</v>
+        <v>2593.960046446144</v>
       </c>
       <c r="U22" t="n">
-        <v>4729.514239893775</v>
+        <v>2315.530475444014</v>
       </c>
       <c r="V22" t="n">
-        <v>4442.558731764206</v>
+        <v>2028.574967314445</v>
       </c>
       <c r="W22" t="n">
-        <v>4170.532327350497</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X22" t="n">
-        <v>3925.14057268391</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y22" t="n">
-        <v>3697.720901998018</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856047</v>
       </c>
       <c r="C23" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E23" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F23" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G23" t="n">
-        <v>389.8367995776308</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H23" t="n">
         <v>102.1422344933241</v>
@@ -5989,34 +5989,34 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J23" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
-        <v>1310.911721843587</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M23" t="n">
-        <v>2492.083625762057</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N23" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.59804712261</v>
       </c>
       <c r="O23" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636536</v>
       </c>
       <c r="P23" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.99237687309</v>
       </c>
       <c r="Q23" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T23" t="n">
         <v>4807.200536626277</v>
@@ -6025,16 +6025,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W23" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X23" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340955</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J24" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K24" t="n">
-        <v>123.4881791623238</v>
+        <v>1154.843697359371</v>
       </c>
       <c r="L24" t="n">
-        <v>139.4489541568686</v>
+        <v>1562.491653959612</v>
       </c>
       <c r="M24" t="n">
-        <v>347.2898539968176</v>
+        <v>1581.117125557124</v>
       </c>
       <c r="N24" t="n">
         <v>1600.235557966002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3374.541899076366</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C25" t="n">
-        <v>3201.980187559591</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D25" t="n">
-        <v>3036.102194761114</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E25" t="n">
-        <v>2866.344191011851</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F25" t="n">
-        <v>2689.637136973608</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G25" t="n">
-        <v>2524.108740653449</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H25" t="n">
-        <v>2516.125998943086</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I25" t="n">
-        <v>2429.3569823312</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J25" t="n">
-        <v>2520.293722469986</v>
+        <v>193.078974632111</v>
       </c>
       <c r="K25" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600885</v>
       </c>
       <c r="L25" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M25" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N25" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O25" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P25" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q25" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>5088.521156305698</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>4930.37559105592</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>4684.764807974254</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U25" t="n">
-        <v>4406.335236972123</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>4119.379728842554</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W25" t="n">
-        <v>3847.353324428846</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X25" t="n">
-        <v>3601.961569762258</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.541899076366</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C26" t="n">
-        <v>2088.646413039469</v>
+        <v>2088.646413039468</v>
       </c>
       <c r="D26" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E26" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F26" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G26" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H26" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I26" t="n">
-        <v>107.0303764979941</v>
+        <v>107.030376497994</v>
       </c>
       <c r="J26" t="n">
-        <v>468.7212565940278</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>1320.547772480818</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.228573617691</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M26" t="n">
-        <v>1366.352642325611</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N26" t="n">
         <v>2516.598047122608</v>
       </c>
       <c r="O26" t="n">
-        <v>3519.925986636535</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P26" t="n">
         <v>4367.992376873088</v>
       </c>
       <c r="Q26" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R26" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S26" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T26" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U26" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V26" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W26" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X26" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y26" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="27">
@@ -6284,19 +6284,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C27" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D27" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E27" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F27" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G27" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H27" t="n">
         <v>102.1422344933241</v>
@@ -6308,22 +6308,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L27" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M27" t="n">
-        <v>1040.378186925049</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N27" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O27" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P27" t="n">
-        <v>1091.023220340726</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
         <v>1641.145501977371</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3505.902283279031</v>
+        <v>1032.244666129789</v>
       </c>
       <c r="C28" t="n">
-        <v>3333.340571762256</v>
+        <v>859.6829546130144</v>
       </c>
       <c r="D28" t="n">
-        <v>3167.462578963778</v>
+        <v>693.8049618145371</v>
       </c>
       <c r="E28" t="n">
-        <v>2997.704575214516</v>
+        <v>524.0469580652743</v>
       </c>
       <c r="F28" t="n">
-        <v>2820.997521176272</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G28" t="n">
-        <v>2655.469124856114</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H28" t="n">
-        <v>2516.125998943086</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I28" t="n">
-        <v>2429.3569823312</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="J28" t="n">
-        <v>2520.293722469986</v>
+        <v>193.0789746321109</v>
       </c>
       <c r="K28" t="n">
-        <v>2802.212156797963</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L28" t="n">
-        <v>3229.58434755993</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M28" t="n">
-        <v>3698.728584924507</v>
+        <v>1371.513837086632</v>
       </c>
       <c r="N28" t="n">
-        <v>4150.418056254837</v>
+        <v>1823.203308416962</v>
       </c>
       <c r="O28" t="n">
-        <v>4578.798053935969</v>
+        <v>2251.583306098094</v>
       </c>
       <c r="P28" t="n">
-        <v>4933.75849803816</v>
+        <v>2606.543750200284</v>
       </c>
       <c r="Q28" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="R28" t="n">
-        <v>5107.111724666206</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>4948.966159416428</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T28" t="n">
-        <v>4703.355376334761</v>
+        <v>2534.286193746664</v>
       </c>
       <c r="U28" t="n">
-        <v>4424.92580533263</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V28" t="n">
-        <v>4137.970297203061</v>
+        <v>1968.901114614964</v>
       </c>
       <c r="W28" t="n">
-        <v>3865.943892789353</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X28" t="n">
-        <v>3620.552138122765</v>
+        <v>1451.482955534668</v>
       </c>
       <c r="Y28" t="n">
-        <v>3620.552138122765</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C29" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D29" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E29" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F29" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G29" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H29" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I29" t="n">
-        <v>107.0303764979941</v>
+        <v>107.030376497994</v>
       </c>
       <c r="J29" t="n">
         <v>118.690981320266</v>
       </c>
       <c r="K29" t="n">
-        <v>970.5174972070564</v>
+        <v>136.1672052488784</v>
       </c>
       <c r="L29" t="n">
-        <v>2067.258264596789</v>
+        <v>185.1807384071401</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.382333304708</v>
+        <v>1366.35264232561</v>
       </c>
       <c r="N29" t="n">
-        <v>2685.752111875665</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O29" t="n">
-        <v>3689.080051389591</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P29" t="n">
-        <v>4537.146441626144</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q29" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R29" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S29" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T29" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U29" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V29" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W29" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X29" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y29" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="30">
@@ -6521,49 +6521,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F30" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G30" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I30" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L30" t="n">
-        <v>139.4489541568686</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M30" t="n">
-        <v>684.4882938331623</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N30" t="n">
-        <v>703.6067262420405</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O30" t="n">
-        <v>1734.897966625519</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P30" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q30" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R30" t="n">
         <v>1762.882278270333</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1178.687535441156</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C31" t="n">
-        <v>1006.125823924381</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D31" t="n">
-        <v>840.2478311259033</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E31" t="n">
-        <v>670.4898273766405</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F31" t="n">
-        <v>493.7827733383967</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G31" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H31" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="J31" t="n">
-        <v>193.078974632111</v>
+        <v>193.0789746321109</v>
       </c>
       <c r="K31" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L31" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M31" t="n">
         <v>1371.513837086632</v>
@@ -6645,28 +6645,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R31" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2761.306408467823</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T31" t="n">
-        <v>2680.72906305803</v>
+        <v>2376.140628496886</v>
       </c>
       <c r="U31" t="n">
-        <v>2402.2994920559</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V31" t="n">
-        <v>2115.343983926331</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W31" t="n">
-        <v>1843.317579512622</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X31" t="n">
-        <v>1597.925824846035</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.506154160143</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="32">
@@ -6685,13 +6685,13 @@
         <v>1652.736628213914</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G32" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H32" t="n">
         <v>102.1422344933241</v>
@@ -6703,25 +6703,25 @@
         <v>118.690981320266</v>
       </c>
       <c r="K32" t="n">
-        <v>632.4026965624552</v>
+        <v>136.1672052488784</v>
       </c>
       <c r="L32" t="n">
-        <v>1729.143463952188</v>
+        <v>1232.907972638611</v>
       </c>
       <c r="M32" t="n">
-        <v>2910.315367870658</v>
+        <v>2414.079876557081</v>
       </c>
       <c r="N32" t="n">
-        <v>4060.560772667655</v>
+        <v>3564.325281354079</v>
       </c>
       <c r="O32" t="n">
-        <v>5063.888712181582</v>
+        <v>4567.653220868006</v>
       </c>
       <c r="P32" t="n">
-        <v>5083.64522758474</v>
+        <v>4914.491162831683</v>
       </c>
       <c r="Q32" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R32" t="n">
         <v>5107.111724666206</v>
@@ -6776,28 +6776,28 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I33" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L33" t="n">
-        <v>139.4489541568686</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M33" t="n">
-        <v>347.2898539968176</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N33" t="n">
-        <v>1600.235557966002</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O33" t="n">
-        <v>1617.725188531179</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P33" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q33" t="n">
         <v>1641.145501977371</v>
@@ -6840,19 +6840,19 @@
         <v>701.5373893632365</v>
       </c>
       <c r="D34" t="n">
-        <v>701.5373893632365</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E34" t="n">
-        <v>670.4898273766405</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F34" t="n">
-        <v>493.7827733383967</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G34" t="n">
-        <v>328.2543770182384</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H34" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6861,10 +6861,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K34" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L34" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M34" t="n">
         <v>1371.513837086632</v>
@@ -6946,13 +6946,13 @@
         <v>1427.452985796848</v>
       </c>
       <c r="M35" t="n">
-        <v>2492.083625762058</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N35" t="n">
         <v>2516.598047122608</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.925986636535</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P35" t="n">
         <v>4367.992376873088</v>
@@ -7016,25 +7016,25 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>137.6817815627741</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>830.2853723931586</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L36" t="n">
-        <v>846.2461473877036</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M36" t="n">
-        <v>864.8716189852161</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N36" t="n">
-        <v>883.9900513940943</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O36" t="n">
-        <v>1617.725188531179</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P36" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
         <v>1641.145501977371</v>
@@ -7098,10 +7098,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K37" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L37" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M37" t="n">
         <v>1371.513837086632</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C38" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D38" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E38" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F38" t="n">
-        <v>791.0944537814166</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G38" t="n">
-        <v>389.8367995776307</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H38" t="n">
         <v>102.1422344933241</v>
@@ -7174,28 +7174,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>1310.911721843587</v>
+        <v>1511.382638370747</v>
       </c>
       <c r="M38" t="n">
-        <v>2492.083625762058</v>
+        <v>1535.506707078667</v>
       </c>
       <c r="N38" t="n">
-        <v>2516.598047122608</v>
+        <v>2685.752111875664</v>
       </c>
       <c r="O38" t="n">
-        <v>3519.925986636535</v>
+        <v>3689.080051389591</v>
       </c>
       <c r="P38" t="n">
-        <v>4367.992376873088</v>
+        <v>4537.146441626144</v>
       </c>
       <c r="Q38" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R38" t="n">
         <v>5107.111724666206</v>
@@ -7219,7 +7219,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>726.8077124858687</v>
+        <v>474.1101772889936</v>
       </c>
       <c r="L39" t="n">
-        <v>742.7684874804136</v>
+        <v>490.0709522835385</v>
       </c>
       <c r="M39" t="n">
-        <v>761.3939590779262</v>
+        <v>508.696423881051</v>
       </c>
       <c r="N39" t="n">
-        <v>780.5123914868043</v>
+        <v>527.8148562899291</v>
       </c>
       <c r="O39" t="n">
-        <v>798.002022051981</v>
+        <v>545.3044868551059</v>
       </c>
       <c r="P39" t="n">
-        <v>1631.762158972801</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q39" t="n">
         <v>1641.145501977371</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1032.244666129789</v>
+        <v>952.5753929162413</v>
       </c>
       <c r="C40" t="n">
-        <v>859.6829546130144</v>
+        <v>780.0136813994662</v>
       </c>
       <c r="D40" t="n">
-        <v>693.8049618145371</v>
+        <v>614.1356886009889</v>
       </c>
       <c r="E40" t="n">
-        <v>524.0469580652743</v>
+        <v>444.3776848517263</v>
       </c>
       <c r="F40" t="n">
-        <v>347.3399040270306</v>
+        <v>267.6706308134825</v>
       </c>
       <c r="G40" t="n">
-        <v>181.8115077068722</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H40" t="n">
-        <v>181.8115077068722</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7335,10 +7335,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K40" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L40" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M40" t="n">
         <v>1371.513837086632</v>
@@ -7359,25 +7359,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S40" t="n">
-        <v>2779.896976828331</v>
+        <v>2700.227703614783</v>
       </c>
       <c r="T40" t="n">
-        <v>2534.286193746664</v>
+        <v>2454.616920533116</v>
       </c>
       <c r="U40" t="n">
-        <v>2255.856622744534</v>
+        <v>2176.187349530986</v>
       </c>
       <c r="V40" t="n">
-        <v>1968.901114614964</v>
+        <v>1889.231841401416</v>
       </c>
       <c r="W40" t="n">
-        <v>1696.874710201256</v>
+        <v>1617.205436987708</v>
       </c>
       <c r="X40" t="n">
-        <v>1451.482955534668</v>
+        <v>1371.81368232112</v>
       </c>
       <c r="Y40" t="n">
-        <v>1224.063284848777</v>
+        <v>1144.394011635228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C41" t="n">
         <v>2088.646413039469</v>
@@ -7411,28 +7411,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>136.1672052488784</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>1232.907972638611</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M41" t="n">
-        <v>2414.079876557081</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N41" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O41" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P41" t="n">
-        <v>4587.409736271163</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q41" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R41" t="n">
         <v>5107.111724666206</v>
@@ -7456,7 +7456,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y41" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="42">
@@ -7487,19 +7487,19 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I42" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J42" t="n">
-        <v>111.6181084023165</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L42" t="n">
-        <v>139.4489541568686</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M42" t="n">
-        <v>158.0744257543811</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N42" t="n">
         <v>1059.496619333927</v>
@@ -7508,7 +7508,7 @@
         <v>1076.986249899104</v>
       </c>
       <c r="P42" t="n">
-        <v>1091.023220340726</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q42" t="n">
         <v>1641.145501977371</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.3901225091115</v>
+        <v>874.0991008800115</v>
       </c>
       <c r="C43" t="n">
-        <v>753.8284109923364</v>
+        <v>701.5373893632365</v>
       </c>
       <c r="D43" t="n">
-        <v>587.9504181938592</v>
+        <v>535.6593965647592</v>
       </c>
       <c r="E43" t="n">
-        <v>418.1924144445964</v>
+        <v>365.9013928154964</v>
       </c>
       <c r="F43" t="n">
-        <v>241.4853604063525</v>
+        <v>189.1943387772526</v>
       </c>
       <c r="G43" t="n">
-        <v>241.4853604063525</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="H43" t="n">
         <v>102.1422344933241</v>
@@ -7572,10 +7572,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K43" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L43" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M43" t="n">
         <v>1371.513837086632</v>
@@ -7605,16 +7605,16 @@
         <v>2097.711057494756</v>
       </c>
       <c r="V43" t="n">
-        <v>1863.046570994286</v>
+        <v>1810.755549365186</v>
       </c>
       <c r="W43" t="n">
-        <v>1591.020166580578</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X43" t="n">
-        <v>1345.62841191399</v>
+        <v>1293.33739028489</v>
       </c>
       <c r="Y43" t="n">
-        <v>1118.208741228099</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E44" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F44" t="n">
         <v>791.0944537814162</v>
@@ -7648,52 +7648,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J44" t="n">
-        <v>118.690981320266</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>970.5174972070564</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
-        <v>2067.258264596789</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M44" t="n">
-        <v>2910.315367870658</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N44" t="n">
-        <v>4060.560772667655</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O44" t="n">
-        <v>5063.888712181582</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P44" t="n">
-        <v>5083.64522758474</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q44" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R44" t="n">
         <v>5107.111724666206</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.65413817865</v>
       </c>
       <c r="T44" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U44" t="n">
         <v>4547.98944811713</v>
       </c>
       <c r="V44" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050957</v>
       </c>
       <c r="W44" t="n">
-        <v>3780.517043461989</v>
+        <v>3780.51704346199</v>
       </c>
       <c r="X44" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041301</v>
       </c>
       <c r="Y44" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="45">
@@ -7730,25 +7730,25 @@
         <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>1154.843697359371</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L45" t="n">
-        <v>1170.804472353916</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M45" t="n">
-        <v>1189.429943951428</v>
+        <v>1040.378186925049</v>
       </c>
       <c r="N45" t="n">
-        <v>1208.548376360307</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O45" t="n">
-        <v>1226.038006925483</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P45" t="n">
-        <v>1240.074977367105</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q45" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1008.929531691893</v>
+        <v>1032.244666129789</v>
       </c>
       <c r="C46" t="n">
-        <v>836.3678201751178</v>
+        <v>859.6829546130144</v>
       </c>
       <c r="D46" t="n">
-        <v>670.4898273766405</v>
+        <v>693.8049618145371</v>
       </c>
       <c r="E46" t="n">
-        <v>670.4898273766405</v>
+        <v>524.0469580652743</v>
       </c>
       <c r="F46" t="n">
-        <v>493.7827733383967</v>
+        <v>347.3399040270306</v>
       </c>
       <c r="G46" t="n">
-        <v>328.2543770182384</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H46" t="n">
-        <v>188.91125110521</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
@@ -7809,10 +7809,10 @@
         <v>193.078974632111</v>
       </c>
       <c r="K46" t="n">
-        <v>474.9974089600885</v>
+        <v>474.9974089600884</v>
       </c>
       <c r="L46" t="n">
-        <v>902.3695997220553</v>
+        <v>902.3695997220552</v>
       </c>
       <c r="M46" t="n">
         <v>1371.513837086632</v>
@@ -7830,28 +7830,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2534.286193746664</v>
       </c>
       <c r="U46" t="n">
-        <v>2079.120489134248</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V46" t="n">
-        <v>1792.164981004678</v>
+        <v>1968.901114614964</v>
       </c>
       <c r="W46" t="n">
-        <v>1520.13857659097</v>
+        <v>1696.874710201256</v>
       </c>
       <c r="X46" t="n">
-        <v>1274.746821924382</v>
+        <v>1451.482955534668</v>
       </c>
       <c r="Y46" t="n">
-        <v>1200.74815041088</v>
+        <v>1224.063284848777</v>
       </c>
     </row>
   </sheetData>
@@ -7984,22 +7984,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8060,25 +8060,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>225.3346227128309</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,16 +8230,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>380.8256479632742</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8379,22 +8379,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.55209558322758</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8531,28 +8531,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8622,16 +8622,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8698,10 +8698,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>84.77742684232372</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.01673864373</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8780,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q12" t="n">
-        <v>191.1266951943803</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8929,10 +8929,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>578.03809205937</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8944,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>328.795575474056</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>395.6436177835312</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>404.7487802599503</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>458.1416867598494</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>531.7311798775568</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.6928078575979</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.01673864373</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1009.572261883846</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>321.9327510097546</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1051.01673864373</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>395.6436177835312</v>
       </c>
       <c r="M24" t="n">
-        <v>191.1266951943802</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>353.5659346199615</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>537.0522859030278</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>27.60882022362492</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>575.6114719297035</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>531.7311798775568</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>501.2479710238149</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>330.3852793540609</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>191.1266951943802</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10594,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>1051.016738643728</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10664,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>723.4803096685943</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>321.9327510097555</v>
+        <v>84.77742684232294</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>255.2500355523991</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>537.0522859030278</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>501.2479710238152</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>891.2159203744117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M44" t="n">
-        <v>827.2050854201515</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>537.052285903028</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>513.9999592929653</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>8.900412467635988</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>76.39707623649986</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90132644576698</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>44.80512936815796</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>151.8867891806657</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>77.69152911586757</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
-        <v>17.45659716725879</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>156.56410959728</v>
       </c>
       <c r="T22" t="n">
-        <v>144.9784406182527</v>
+        <v>59.07711417248521</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>130.0467803606379</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>77.69152911586755</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.39707623650067</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>59.07711417248554</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>18.40466267690321</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>77.6915291158675</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>163.3831032951555</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>137.3233373450401</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>77.69152911586755</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>7.028745964354371</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>18.40466267690321</v>
       </c>
       <c r="S40" t="n">
-        <v>156.56410959728</v>
+        <v>77.69152911586704</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8731123569568</v>
+        <v>77.69152911586755</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
         <v>85.90132644576698</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>51.76811141280896</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>59.07711417248551</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.40466267690321</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.8867891806657</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>605404.2565783453</v>
+        <v>605404.2565783452</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>605404.2565783452</v>
+        <v>605404.2565783453</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>605404.2565783451</v>
+        <v>605404.2565783452</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>605404.2565783451</v>
+        <v>605404.2565783452</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>605404.2565783453</v>
+        <v>605404.2565783451</v>
       </c>
     </row>
   </sheetData>
@@ -26316,40 +26316,40 @@
         <v>442321.538909587</v>
       </c>
       <c r="C2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="E2" t="n">
+        <v>435986.5840943169</v>
+      </c>
+      <c r="F2" t="n">
+        <v>435986.5840943169</v>
+      </c>
+      <c r="G2" t="n">
         <v>435986.5840943168</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>435986.5840943167</v>
-      </c>
-      <c r="G2" t="n">
-        <v>435986.5840943166</v>
-      </c>
-      <c r="H2" t="n">
-        <v>435986.5840943166</v>
       </c>
       <c r="I2" t="n">
         <v>435986.5840943168</v>
       </c>
       <c r="J2" t="n">
-        <v>435986.5840943166</v>
+        <v>435986.5840943168</v>
       </c>
       <c r="K2" t="n">
         <v>435986.5840943166</v>
       </c>
       <c r="L2" t="n">
+        <v>435986.5840943167</v>
+      </c>
+      <c r="M2" t="n">
+        <v>435986.5840943167</v>
+      </c>
+      <c r="N2" t="n">
         <v>435986.5840943168</v>
-      </c>
-      <c r="M2" t="n">
-        <v>435986.5840943166</v>
-      </c>
-      <c r="N2" t="n">
-        <v>435986.5840943167</v>
       </c>
       <c r="O2" t="n">
         <v>435986.5840943168</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>282266.1702848778</v>
+        <v>282266.1702848779</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>111014.4653449901</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>224357.4126279203</v>
       </c>
       <c r="C4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="D4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="E4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
       <c r="F4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
       <c r="G4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
       <c r="H4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257627</v>
       </c>
       <c r="I4" t="n">
         <v>117378.5063257626</v>
@@ -26478,25 +26478,25 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="F5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="G5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="H5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="J5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="K5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="L5" t="n">
         <v>78380.64252189653</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16348.03748473444</v>
+        <v>16348.03748473438</v>
       </c>
       <c r="C6" t="n">
-        <v>158539.3381444444</v>
+        <v>158539.3381444443</v>
       </c>
       <c r="D6" t="n">
-        <v>158539.3381444444</v>
+        <v>158539.3381444443</v>
       </c>
       <c r="E6" t="n">
-        <v>-42038.73503822021</v>
+        <v>-42057.93187099376</v>
       </c>
       <c r="F6" t="n">
-        <v>240227.4352466576</v>
+        <v>240208.2384138841</v>
       </c>
       <c r="G6" t="n">
-        <v>240227.4352466575</v>
+        <v>240208.238413884</v>
       </c>
       <c r="H6" t="n">
-        <v>240227.4352466575</v>
+        <v>240208.238413884</v>
       </c>
       <c r="I6" t="n">
-        <v>240227.4352466577</v>
+        <v>240208.2384138841</v>
       </c>
       <c r="J6" t="n">
-        <v>129212.9699016673</v>
+        <v>129193.773068894</v>
       </c>
       <c r="K6" t="n">
-        <v>240227.4352466575</v>
+        <v>240208.2384138839</v>
       </c>
       <c r="L6" t="n">
-        <v>240227.4352466577</v>
+        <v>240208.238413884</v>
       </c>
       <c r="M6" t="n">
-        <v>27785.4925656682</v>
+        <v>27766.29573289472</v>
       </c>
       <c r="N6" t="n">
-        <v>240227.4352466576</v>
+        <v>240208.238413884</v>
       </c>
       <c r="O6" t="n">
-        <v>240227.4352466576</v>
+        <v>240208.2384138842</v>
       </c>
       <c r="P6" t="n">
-        <v>240227.4352466576</v>
+        <v>240208.238413884</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
     </row>
     <row r="4">
@@ -26813,10 +26813,10 @@
         <v>1276.777931166552</v>
       </c>
       <c r="J4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="K4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="L4" t="n">
         <v>1276.777931166552</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367901</v>
+        <v>34.520381053679</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464474</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464474</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.87647255027093</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>9.465190568306582</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>247.5442635410171</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>206.882824987283</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>173.6011361455566</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -27618,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>196.5432550408246</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>102.0591839366169</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27678,13 +27678,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>400</v>
       </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>108.6345309813753</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>20.78977749077791</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>50.96980923907807</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>73.13130200746645</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>13.074252121104</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.307764691809</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -29040,7 +29040,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I11" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J11" t="n">
         <v>11.77838870936558</v>
@@ -31767,31 +31767,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P11" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S11" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T11" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U11" t="n">
         <v>0.0111020320976656</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L12" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M13" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T13" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I14" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J14" t="n">
         <v>11.77838870936558</v>
@@ -32004,31 +32004,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P14" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S14" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T14" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U14" t="n">
         <v>0.0111020320976656</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L15" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M16" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T16" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I17" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J17" t="n">
         <v>11.77838870936558</v>
@@ -32241,31 +32241,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P17" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S17" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T17" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U17" t="n">
         <v>0.0111020320976656</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L18" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M19" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T19" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,10 +32466,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I20" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J20" t="n">
         <v>11.77838870936558</v>
@@ -32478,31 +32478,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P20" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S20" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T20" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U20" t="n">
         <v>0.0111020320976656</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L21" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M22" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T22" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,10 +32703,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I23" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J23" t="n">
         <v>11.77838870936558</v>
@@ -32715,31 +32715,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P23" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S23" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T23" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U23" t="n">
         <v>0.0111020320976656</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L24" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M25" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T25" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,10 +32940,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I26" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J26" t="n">
         <v>11.77838870936558</v>
@@ -32952,31 +32952,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P26" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S26" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T26" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U26" t="n">
         <v>0.0111020320976656</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L27" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H28" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M28" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T28" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,10 +33177,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I29" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J29" t="n">
         <v>11.77838870936558</v>
@@ -33189,31 +33189,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P29" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S29" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T29" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U29" t="n">
         <v>0.0111020320976656</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L30" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M31" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T31" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,10 +33414,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I32" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J32" t="n">
         <v>11.77838870936558</v>
@@ -33426,31 +33426,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P32" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S32" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T32" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U32" t="n">
         <v>0.0111020320976656</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M34" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T34" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,10 +33651,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I35" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J35" t="n">
         <v>11.77838870936558</v>
@@ -33663,31 +33663,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P35" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S35" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T35" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U35" t="n">
         <v>0.0111020320976656</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M37" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T37" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,10 +33888,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I38" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J38" t="n">
         <v>11.77838870936558</v>
@@ -33900,31 +33900,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P38" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S38" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T38" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U38" t="n">
         <v>0.0111020320976656</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L39" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H40" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M40" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T40" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,10 +34125,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I41" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J41" t="n">
         <v>11.77838870936558</v>
@@ -34137,31 +34137,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P41" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S41" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T41" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U41" t="n">
         <v>0.0111020320976656</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L42" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H43" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M43" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T43" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,10 +34362,10 @@
         <v>0.13877540122082</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752724</v>
+        <v>1.421233577752723</v>
       </c>
       <c r="I44" t="n">
-        <v>5.35013865556567</v>
+        <v>5.350138655565668</v>
       </c>
       <c r="J44" t="n">
         <v>11.77838870936558</v>
@@ -34374,31 +34374,31 @@
         <v>17.6527514430429</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815458</v>
+        <v>21.89979912815457</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961533</v>
+        <v>24.36774616961532</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833399</v>
+        <v>24.76204177833398</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244446</v>
+        <v>23.38209388244445</v>
       </c>
       <c r="P44" t="n">
         <v>19.95607616480546</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858484</v>
+        <v>14.98618210858483</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937344</v>
+        <v>8.71735029693734</v>
       </c>
       <c r="S44" t="n">
-        <v>3.16234445531944</v>
+        <v>3.162344455319439</v>
       </c>
       <c r="T44" t="n">
-        <v>0.60748931884414</v>
+        <v>0.6074893188441398</v>
       </c>
       <c r="U44" t="n">
         <v>0.0111020320976656</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263033</v>
+        <v>0.0742513856626303</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943509</v>
+        <v>0.7171120667943506</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805474</v>
+        <v>2.556462181805473</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257544</v>
+        <v>7.015127625257541</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L45" t="n">
         <v>16.12199494398471</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425506</v>
+        <v>18.81360767425505</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775577</v>
+        <v>19.31154788775576</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017854</v>
+        <v>17.66629350017853</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184035</v>
+        <v>14.17875802184034</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040322</v>
+        <v>9.478124247040316</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527173</v>
+        <v>4.610099190527171</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286137</v>
+        <v>1.379186922286136</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559528</v>
+        <v>0.2992851904559527</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067786</v>
+        <v>0.004884959583067785</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06224986747384739</v>
+        <v>0.06224986747384736</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5534579126311163</v>
+        <v>0.5534579126311161</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304429</v>
+        <v>1.872023287304428</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401011</v>
+        <v>4.401065630401009</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688813</v>
+        <v>7.232302784688811</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702731</v>
+        <v>9.254857569702727</v>
       </c>
       <c r="M46" t="n">
-        <v>9.75794968046864</v>
+        <v>9.757949680468636</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157034</v>
+        <v>9.525927447157031</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485269</v>
+        <v>8.798735813485266</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018776</v>
+        <v>7.528838517018772</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.21257753910553</v>
+        <v>5.212577539105528</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778628</v>
+        <v>2.798980404778627</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703322</v>
+        <v>1.084845417703321</v>
       </c>
       <c r="T46" t="n">
-        <v>0.265976706479166</v>
+        <v>0.2659767064791659</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755316</v>
+        <v>0.003395447316755314</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34780,25 +34780,25 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="L3" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>358.9284720888816</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,19 +34856,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>225.3346227128309</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>35.25505765581499</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>380.8256479632742</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35099,22 +35099,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.55209558322758</v>
+        <v>117.6925219988882</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,7 +35178,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P8" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35251,28 +35251,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>262.4693064538401</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>358.9284720888815</v>
+      </c>
+      <c r="P9" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35342,16 +35342,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>131.8679565343714</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J11" t="n">
         <v>451.4295881567574</v>
@@ -35418,22 +35418,22 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M11" t="n">
-        <v>109.1451730119391</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N11" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422064</v>
       </c>
       <c r="O11" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P11" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q11" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805273</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257719</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465365</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398465</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425485</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184062</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q12" t="n">
-        <v>200.6048194414207</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>122.9664406999609</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K13" t="n">
         <v>284.7660952807854</v>
@@ -35576,16 +35576,16 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M13" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N13" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O13" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P13" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q13" t="n">
         <v>175.1042693212594</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J14" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K14" t="n">
-        <v>595.6908435024129</v>
+        <v>17.65275144304292</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M14" t="n">
         <v>1193.10293325098</v>
@@ -35664,13 +35664,13 @@
         <v>23.38209388244468</v>
       </c>
       <c r="P14" t="n">
-        <v>856.63271741066</v>
+        <v>348.7516516388614</v>
       </c>
       <c r="Q14" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R14" t="n">
-        <v>179.5800419666921</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>28.88340476812628</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J15" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
@@ -35740,16 +35740,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P15" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>405.1217420305716</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K16" t="n">
         <v>284.7660952807854</v>
@@ -35813,16 +35813,16 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M16" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N16" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O16" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P16" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q16" t="n">
         <v>175.1042693212594</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J17" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936559</v>
       </c>
       <c r="K17" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M17" t="n">
-        <v>1193.10293325098</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N17" t="n">
-        <v>1161.864045249493</v>
+        <v>429.5108220382845</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244468</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P17" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.1278688684342</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>543.7211503422105</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L18" t="n">
         <v>16.12199494398476</v>
@@ -35977,16 +35977,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P18" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
@@ -36050,16 +36050,16 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M19" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N19" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O19" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P19" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q19" t="n">
         <v>175.1042693212594</v>
@@ -36117,13 +36117,13 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J20" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K20" t="n">
-        <v>774.3455593006408</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L20" t="n">
         <v>21.89979912815465</v>
@@ -36132,16 +36132,16 @@
         <v>24.36774616961543</v>
       </c>
       <c r="N20" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422064</v>
       </c>
       <c r="O20" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q20" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R20" t="n">
         <v>179.5800419666912</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465378</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L21" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775578</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O21" t="n">
-        <v>1027.238555384024</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P21" t="n">
         <v>14.17875802184039</v>
@@ -36223,7 +36223,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.85529306948138</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K22" t="n">
-        <v>284.7660952807851</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L22" t="n">
         <v>431.6890815777442</v>
@@ -36290,13 +36290,13 @@
         <v>473.8830680450274</v>
       </c>
       <c r="N22" t="n">
-        <v>456.2519912427574</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O22" t="n">
         <v>432.7070683647798</v>
       </c>
       <c r="P22" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q22" t="n">
         <v>175.1042693212594</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
-        <v>343.8325501379092</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M23" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422064</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P23" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q23" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R23" t="n">
-        <v>179.5800419666921</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465378</v>
+        <v>699.5995866973583</v>
       </c>
       <c r="L24" t="n">
-        <v>16.1219949439847</v>
+        <v>411.7656127275159</v>
       </c>
       <c r="M24" t="n">
-        <v>209.9403028686353</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N24" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P24" t="n">
         <v>14.17875802184039</v>
@@ -36460,7 +36460,7 @@
         <v>9.478124247040341</v>
       </c>
       <c r="R24" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.85529306948138</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K25" t="n">
-        <v>284.7660952807851</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L25" t="n">
         <v>431.6890815777442</v>
@@ -36527,13 +36527,13 @@
         <v>473.8830680450274</v>
       </c>
       <c r="N25" t="n">
-        <v>456.2519912427574</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O25" t="n">
         <v>432.7070683647798</v>
       </c>
       <c r="P25" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q25" t="n">
         <v>175.1042693212594</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J26" t="n">
-        <v>365.344323329327</v>
+        <v>451.4295881567575</v>
       </c>
       <c r="K26" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961543</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N26" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O26" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P26" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q26" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R26" t="n">
         <v>179.5800419666912</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>28.88340476812628</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J27" t="n">
         <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0422563676816</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398476</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M27" t="n">
         <v>18.81360767425508</v>
@@ -36688,16 +36688,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q27" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948138</v>
+        <v>91.85529306948166</v>
       </c>
       <c r="K28" t="n">
-        <v>284.7660952807851</v>
+        <v>284.7660952807854</v>
       </c>
       <c r="L28" t="n">
         <v>431.6890815777442</v>
@@ -36764,13 +36764,13 @@
         <v>473.8830680450274</v>
       </c>
       <c r="N28" t="n">
-        <v>456.2519912427574</v>
+        <v>456.2519912427576</v>
       </c>
       <c r="O28" t="n">
         <v>432.7070683647798</v>
       </c>
       <c r="P28" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q28" t="n">
         <v>175.1042693212594</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J29" t="n">
         <v>11.77838870936559</v>
       </c>
       <c r="K29" t="n">
-        <v>860.4308241280712</v>
+        <v>17.65275144304289</v>
       </c>
       <c r="L29" t="n">
-        <v>1107.818956959326</v>
+        <v>49.50861935177949</v>
       </c>
       <c r="M29" t="n">
-        <v>24.3677461696152</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N29" t="n">
-        <v>600.3735137080375</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O29" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P29" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q29" t="n">
-        <v>567.0051578243374</v>
+        <v>567.0051578243365</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812627</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465378</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L30" t="n">
         <v>16.1219949439847</v>
       </c>
       <c r="M30" t="n">
-        <v>550.5447875518119</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
         <v>19.31154788775575</v>
       </c>
       <c r="O30" t="n">
-        <v>1041.708323619675</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R30" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>91.85529306948168</v>
+        <v>91.85529306948166</v>
       </c>
       <c r="K31" t="n">
         <v>284.7660952807854</v>
@@ -36998,16 +36998,16 @@
         <v>431.6890815777442</v>
       </c>
       <c r="M31" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N31" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O31" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P31" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q31" t="n">
         <v>175.1042693212594</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J32" t="n">
         <v>11.77838870936559</v>
       </c>
       <c r="K32" t="n">
-        <v>518.9007224668578</v>
+        <v>17.6527514430429</v>
       </c>
       <c r="L32" t="n">
         <v>1107.818956959326</v>
@@ -37086,13 +37086,13 @@
         <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480538</v>
+        <v>350.3413555188663</v>
       </c>
       <c r="Q32" t="n">
         <v>14.98618210858513</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465378</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L33" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>209.9403028686353</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>1265.601721180995</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P33" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R33" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K34" t="n">
-        <v>284.7660952807854</v>
+        <v>284.7660952807853</v>
       </c>
       <c r="L34" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M34" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N34" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O34" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P34" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q34" t="n">
         <v>175.1042693212594</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J35" t="n">
         <v>451.4295881567574</v>
@@ -37314,16 +37314,16 @@
         <v>21.89979912815465</v>
       </c>
       <c r="M35" t="n">
-        <v>1075.384484813344</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P35" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q35" t="n">
         <v>567.0051578243374</v>
@@ -37384,13 +37384,13 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>699.5995866973581</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398476</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M36" t="n">
         <v>18.81360767425508</v>
@@ -37399,16 +37399,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
-        <v>741.1466031687728</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184039</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K37" t="n">
-        <v>284.7660952807854</v>
+        <v>284.7660952807853</v>
       </c>
       <c r="L37" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M37" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N37" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O37" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P37" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q37" t="n">
         <v>175.1042693212594</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>343.8325501379101</v>
+        <v>106.6772259704776</v>
       </c>
       <c r="M38" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P38" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q38" t="n">
         <v>567.0051578243374</v>
       </c>
       <c r="R38" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,10 +37624,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>267.2400060170528</v>
+        <v>11.98997046465377</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398476</v>
+        <v>16.1219949439847</v>
       </c>
       <c r="M39" t="n">
         <v>18.81360767425508</v>
@@ -37639,13 +37639,13 @@
         <v>17.66629350017854</v>
       </c>
       <c r="P39" t="n">
-        <v>842.181956485677</v>
+        <v>551.2310439248682</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R39" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K40" t="n">
-        <v>284.7660952807854</v>
+        <v>284.7660952807853</v>
       </c>
       <c r="L40" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M40" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N40" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O40" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P40" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q40" t="n">
         <v>175.1042693212594</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.6527514430429</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O41" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q41" t="n">
-        <v>516.2341531324</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805472</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257549</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465378</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L42" t="n">
-        <v>16.1219949439847</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425505</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>910.5274682621674</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P42" t="n">
         <v>14.17875802184039</v>
@@ -37882,7 +37882,7 @@
         <v>555.679072360248</v>
       </c>
       <c r="R42" t="n">
-        <v>122.9664406999611</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K43" t="n">
-        <v>284.7660952807854</v>
+        <v>284.7660952807853</v>
       </c>
       <c r="L43" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M43" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N43" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O43" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P43" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q43" t="n">
         <v>175.1042693212594</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434272</v>
+        <v>4.93751717643427</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936559</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M44" t="n">
-        <v>851.5728315897668</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N44" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480538</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,10 +38098,10 @@
         <v>334.8518195103205</v>
       </c>
       <c r="K45" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676816</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398465</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
@@ -38110,16 +38110,16 @@
         <v>19.31154788775575</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017843</v>
       </c>
       <c r="P45" t="n">
         <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
-        <v>523.4780835400056</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R45" t="n">
-        <v>4.61009919052708</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>91.85529306948168</v>
       </c>
       <c r="K46" t="n">
-        <v>284.7660952807854</v>
+        <v>284.7660952807853</v>
       </c>
       <c r="L46" t="n">
         <v>431.6890815777442</v>
       </c>
       <c r="M46" t="n">
-        <v>473.8830680450272</v>
+        <v>473.8830680450274</v>
       </c>
       <c r="N46" t="n">
         <v>456.2519912427576</v>
       </c>
       <c r="O46" t="n">
-        <v>432.7070683647794</v>
+        <v>432.7070683647798</v>
       </c>
       <c r="P46" t="n">
-        <v>358.5459031335258</v>
+        <v>358.5459031335254</v>
       </c>
       <c r="Q46" t="n">
         <v>175.1042693212594</v>
